--- a/config_aomi/fish_am_yutu_random_4.xlsx
+++ b/config_aomi/fish_am_yutu_random_4.xlsx
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E14"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1100,7 +1100,7 @@
         <v>75</v>
       </c>
       <c r="D2" s="11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E2" s="11">
         <v>250</v>
@@ -1160,10 +1160,10 @@
         <v>54</v>
       </c>
       <c r="D5" s="11">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E5" s="11">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1200,10 +1200,10 @@
         <v>78</v>
       </c>
       <c r="D7" s="11">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="E7" s="11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>55</v>
@@ -1222,10 +1222,10 @@
         <v>58</v>
       </c>
       <c r="D8" s="11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E8" s="11">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>55</v>
@@ -1242,10 +1242,10 @@
         <v>58</v>
       </c>
       <c r="D9" s="11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="11">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>55</v>

--- a/config_aomi/fish_am_yutu_random_4.xlsx
+++ b/config_aomi/fish_am_yutu_random_4.xlsx
@@ -256,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>35,42,43,44,45,46,47,48,48,46,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +332,10 @@
   </si>
   <si>
     <t>1,2,3,4,5,7,8,9,10,11,26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,64,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1068,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -1094,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="11">
         <v>150</v>
@@ -1106,7 +1106,7 @@
         <v>250</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1114,10 +1114,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="11">
         <v>200</v>
@@ -1126,7 +1126,7 @@
         <v>300</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1134,10 +1134,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="11">
         <v>250</v>
@@ -1146,7 +1146,7 @@
         <v>350</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1154,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -1174,10 +1174,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="11">
         <v>400</v>
@@ -1194,10 +1194,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="11">
         <v>30</v>
@@ -1216,10 +1216,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="D8" s="11">
         <v>50</v>
@@ -1236,10 +1236,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="D9" s="11">
         <v>100</v>
@@ -1256,10 +1256,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="11">
         <v>800</v>
@@ -1279,10 +1279,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="11">
         <v>1800</v>
@@ -1302,10 +1302,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="11">
         <v>2800</v>
@@ -1325,10 +1325,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="11">
         <v>3800</v>
@@ -1348,10 +1348,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="11">
         <v>4800</v>
@@ -1842,7 +1842,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1859,7 +1859,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1876,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1893,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
